--- a/odm_quote_forecast/anchored_results/NPI PTI & Pega Forecasts.xlsx
+++ b/odm_quote_forecast/anchored_results/NPI PTI & Pega Forecasts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecasts for PEGATRON &amp; PTI TAIWAN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Forecasts for PEGATRON and PTI TAIWAN" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Program</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ODM</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Program</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,12 +492,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FAIRVIEW</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -532,12 +532,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FAIRVIEW</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -572,12 +572,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>FAIRVIEW</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -612,12 +612,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>ADPRRR EE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -646,12 +646,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ADPRRR EE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -680,12 +680,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>ADPRRR EE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -714,12 +714,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>ADPRRR VE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -749,21 +749,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SBFPF2BV076TES1</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ADPRRR VE PRQ2</t>
-        </is>
-      </c>
       <c r="E9" t="n">
-        <v>45.35</v>
+        <v>45.39</v>
       </c>
       <c r="F9" t="n">
         <v>202241</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>45.35000000000001</v>
+        <v>45.39</v>
       </c>
       <c r="J9" t="n">
-        <v>2358.2</v>
+        <v>1815.6</v>
       </c>
     </row>
     <row r="10">
@@ -789,21 +789,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SBFPF2BV153TES1</t>
+          <t>SBFPF2BV076TES1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ADPRRR VE PRQ2</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>45.41</v>
+        <v>45.35</v>
       </c>
       <c r="F10" t="n">
         <v>202241</v>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>45.41</v>
+        <v>45.35000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>7810.52</v>
+        <v>2358.2</v>
       </c>
     </row>
     <row r="11">
@@ -829,21 +829,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SBFPF2BV307TES1</t>
+          <t>SBFPF2BV153TES1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ADPRRR VE PRQ2</t>
-        </is>
-      </c>
       <c r="E11" t="n">
-        <v>120.88</v>
+        <v>45.41</v>
       </c>
       <c r="F11" t="n">
         <v>202241</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>120.88</v>
+        <v>45.41</v>
       </c>
       <c r="J11" t="n">
-        <v>12692.4</v>
+        <v>7810.52</v>
       </c>
     </row>
     <row r="12">
@@ -869,20 +869,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SBFPFABU038TES1</t>
+          <t>SBFPF2BV307TES1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ADPRRR EE</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>120.88</v>
+      </c>
       <c r="F12" t="n">
         <v>202241</v>
       </c>
@@ -894,8 +896,12 @@
           <t>ACTIVE, WIP, DONE</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>120.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12692.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -903,22 +909,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SBFPFABU076TES1</t>
+          <t>SBFPFABU038TES1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>ADPRRR EE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ADPRRR EE</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>53.78</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>202241</v>
       </c>
@@ -930,12 +934,8 @@
           <t>ACTIVE, WIP, DONE</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>53.78</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1290.72</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -943,21 +943,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SBFPFABU153TES1</t>
+          <t>SBFPFABU076TES1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>ADPRRR EE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ADPRRR EE</t>
-        </is>
-      </c>
       <c r="E14" t="n">
-        <v>53.02</v>
+        <v>53.78</v>
       </c>
       <c r="F14" t="n">
         <v>202241</v>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>53.02</v>
+        <v>53.78</v>
       </c>
       <c r="J14" t="n">
-        <v>1060.4</v>
+        <v>1290.72</v>
       </c>
     </row>
     <row r="15">
@@ -983,21 +983,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SBFPFABV076TES1</t>
+          <t>SBFPFABU153TES1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>ADPRRR EE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ADPRRR VE PRQ2</t>
-        </is>
-      </c>
       <c r="E15" t="n">
-        <v>52.96</v>
+        <v>53.02</v>
       </c>
       <c r="F15" t="n">
         <v>202241</v>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>52.96</v>
+        <v>53.02</v>
       </c>
       <c r="J15" t="n">
-        <v>5084.16</v>
+        <v>1060.4</v>
       </c>
     </row>
     <row r="16">
@@ -1023,21 +1023,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SBFPFABV153TES1</t>
+          <t>SBFPFABV076TES1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ADPRRR VE PRQ2</t>
-        </is>
-      </c>
       <c r="E16" t="n">
-        <v>53.02</v>
+        <v>52.96</v>
       </c>
       <c r="F16" t="n">
         <v>202241</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>53.02</v>
+        <v>52.96</v>
       </c>
       <c r="J16" t="n">
-        <v>2438.92</v>
+        <v>5084.16</v>
       </c>
     </row>
     <row r="17">
@@ -1063,21 +1063,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SBFPFWBV153TES1</t>
+          <t>SBFPFABV153TES1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ADPRRR VE</t>
-        </is>
-      </c>
       <c r="E17" t="n">
-        <v>121.16</v>
+        <v>53.02</v>
       </c>
       <c r="F17" t="n">
         <v>202241</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>121.16</v>
+        <v>53.02</v>
       </c>
       <c r="J17" t="n">
-        <v>13085.28</v>
+        <v>2438.92</v>
       </c>
     </row>
     <row r="18">
@@ -1103,21 +1103,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SBFPFWBV307TES1</t>
+          <t>SBFPFWBV153TES1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>ADPRRR VE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ADPRRR VE</t>
-        </is>
-      </c>
       <c r="E18" t="n">
-        <v>120.72</v>
+        <v>121.16</v>
       </c>
       <c r="F18" t="n">
         <v>202241</v>
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>120.72</v>
+        <v>121.16</v>
       </c>
       <c r="J18" t="n">
-        <v>12554.88</v>
+        <v>13085.28</v>
       </c>
     </row>
     <row r="19">
@@ -1143,21 +1143,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SSDPF2KX012TZES</t>
+          <t>SBFPFWBV307TES1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>ADPRRR VE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ADPR SE</t>
-        </is>
-      </c>
       <c r="E19" t="n">
-        <v>37.7</v>
+        <v>120.72</v>
       </c>
       <c r="F19" t="n">
         <v>202241</v>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>37.7</v>
+        <v>120.72</v>
       </c>
       <c r="J19" t="n">
-        <v>2865.2</v>
+        <v>12554.88</v>
       </c>
     </row>
     <row r="20">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SSDPF2KX038TZES</t>
+          <t>SSDPF2KX012TZES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>ADPR SE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ADPR SE</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1214,7 +1214,7 @@
         <v>37.7</v>
       </c>
       <c r="J20" t="n">
-        <v>6032</v>
+        <v>2865.2</v>
       </c>
     </row>
     <row r="21">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SSDPF2KX076TZES</t>
+          <t>SSDPF2KX038TZES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>ADPR SE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ADPR SE</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1254,7 +1254,7 @@
         <v>37.7</v>
       </c>
       <c r="J21" t="n">
-        <v>452.4</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="22">
@@ -1263,21 +1263,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SSDPFINU512GZ1S</t>
+          <t>SSDPF2KX076TZES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>ADPR SE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>EH</t>
-        </is>
-      </c>
       <c r="E22" t="n">
-        <v>5.79</v>
+        <v>37.7</v>
       </c>
       <c r="F22" t="n">
         <v>202241</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5.79</v>
+        <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>277.92</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="23">
@@ -1303,17 +1303,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SSDPFKNU010TZ1S</t>
+          <t>SSDPFINU512GZ1S</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>EH</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>EH</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1334,7 +1334,7 @@
         <v>5.79</v>
       </c>
       <c r="J23" t="n">
-        <v>555.84</v>
+        <v>277.92</v>
       </c>
     </row>
     <row r="24">
@@ -1343,17 +1343,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SSDPFKNU512GZ1S</t>
+          <t>SSDPFKNU010TZ1S</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>EH</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>EH</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1374,7 +1374,7 @@
         <v>5.79</v>
       </c>
       <c r="J24" t="n">
-        <v>648.48</v>
+        <v>555.84</v>
       </c>
     </row>
     <row r="25">
@@ -1383,21 +1383,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PFKNU512GZ</t>
+          <t>SSDPFKNU512GZ1S</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>EH</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>45.98</v>
+        <v>5.79</v>
       </c>
       <c r="F25" t="n">
         <v>202241</v>
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>45.98</v>
+        <v>5.79</v>
       </c>
       <c r="J25" t="n">
-        <v>4414.08</v>
+        <v>648.48</v>
       </c>
     </row>
     <row r="26">
@@ -1423,21 +1423,21 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SBDPFKBP010T</t>
+          <t>PFKNU512GZ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FAIRVIEW</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9.91</v>
+        <v>45.98</v>
       </c>
       <c r="F26" t="n">
         <v>202241</v>
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9.91</v>
+        <v>45.98</v>
       </c>
       <c r="J26" t="n">
-        <v>356.76</v>
+        <v>4414.08</v>
       </c>
     </row>
     <row r="27">
@@ -1463,21 +1463,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SBFPF2BU012TES1</t>
+          <t>SBDPFKBP010T</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.89090909090909</v>
+        <v>9.91</v>
       </c>
       <c r="F27" t="n">
         <v>202241</v>
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>40.25467532467533</v>
+        <v>9.91</v>
       </c>
       <c r="J27" t="n">
-        <v>3099.454545454545</v>
+        <v>356.76</v>
       </c>
     </row>
     <row r="28">
@@ -1503,21 +1503,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SBFPF2BU038TES1</t>
+          <t>SBFPF2BU012TES1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>48.2925</v>
+        <v>38.89090909090909</v>
       </c>
       <c r="F28" t="n">
         <v>202241</v>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>48.3135294117647</v>
+        <v>40.25467532467533</v>
       </c>
       <c r="J28" t="n">
-        <v>4106.65</v>
+        <v>3099.454545454545</v>
       </c>
     </row>
     <row r="29">
@@ -1543,21 +1543,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SBFPF2BU076TES1</t>
+          <t>SBFPF2BU038TES1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>49.555</v>
+        <v>48.2925</v>
       </c>
       <c r="F29" t="n">
         <v>202241</v>
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>49.59975308641975</v>
+        <v>48.3135294117647</v>
       </c>
       <c r="J29" t="n">
-        <v>4017.58</v>
+        <v>4106.65</v>
       </c>
     </row>
     <row r="30">
@@ -1583,21 +1583,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SBFPF2BU153TES1</t>
+          <t>SBFPF2BU076TES1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>55.515</v>
+        <v>49.555</v>
       </c>
       <c r="F30" t="n">
         <v>202241</v>
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>55.55952380952381</v>
+        <v>49.59975308641975</v>
       </c>
       <c r="J30" t="n">
-        <v>2333.5</v>
+        <v>4017.58</v>
       </c>
     </row>
     <row r="31">
@@ -1623,21 +1623,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SBFPF2BU307TES1</t>
+          <t>SBFPF2BU153TES1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>106.09</v>
+        <v>55.515</v>
       </c>
       <c r="F31" t="n">
         <v>202241</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>106.0923188405797</v>
+        <v>55.55952380952381</v>
       </c>
       <c r="J31" t="n">
-        <v>5490.2775</v>
+        <v>2333.5</v>
       </c>
     </row>
     <row r="32">
@@ -1663,21 +1663,21 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SBFPF2BV025TES1</t>
+          <t>SBFPF2BU307TES1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>110.21</v>
+        <v>106.09</v>
       </c>
       <c r="F32" t="n">
         <v>202241</v>
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>56.78142857142858</v>
+        <v>106.0923188405797</v>
       </c>
       <c r="J32" t="n">
-        <v>11806.16</v>
+        <v>5490.2775</v>
       </c>
     </row>
     <row r="33">
@@ -1703,21 +1703,21 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SBFPF2BV076TES1</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>48.67999999999999</v>
+        <v>48.47</v>
       </c>
       <c r="F33" t="n">
         <v>202241</v>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>48.67999999999999</v>
+        <v>48.38590163934425</v>
       </c>
       <c r="J33" t="n">
-        <v>4283.839999999999</v>
+        <v>11806.16</v>
       </c>
     </row>
     <row r="34">
@@ -1743,21 +1743,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SBFPF2BV153TES1</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>78.21000000000001</v>
+        <v>49.12</v>
       </c>
       <c r="F34" t="n">
         <v>202241</v>
@@ -1771,10 +1771,10 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>78.21000000000001</v>
+        <v>49.12</v>
       </c>
       <c r="J34" t="n">
-        <v>3934.8</v>
+        <v>7073.280000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1783,21 +1783,21 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SBFPF2BV307TES1</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>138.75</v>
+        <v>110.21</v>
       </c>
       <c r="F35" t="n">
         <v>202241</v>
@@ -1811,10 +1811,10 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>138.75</v>
+        <v>56.78142857142858</v>
       </c>
       <c r="J35" t="n">
-        <v>5550</v>
+        <v>2384.82</v>
       </c>
     </row>
     <row r="36">
@@ -1823,21 +1823,21 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SBFPF2BV614TES1</t>
+          <t>SBFPF2BV076TES1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>115.555</v>
+        <v>48.67999999999999</v>
       </c>
       <c r="F36" t="n">
         <v>202241</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>116.8689312977099</v>
+        <v>48.67999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>3827.4575</v>
+        <v>4283.839999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1863,21 +1863,21 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SBFPFABU038TES1</t>
+          <t>SBFPF2BV153TES1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>60.322</v>
+        <v>55.70000000000001</v>
       </c>
       <c r="F37" t="n">
         <v>202241</v>
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>60.57756756756758</v>
+        <v>55.7</v>
       </c>
       <c r="J37" t="n">
-        <v>1793.096</v>
+        <v>3639.066666666667</v>
       </c>
     </row>
     <row r="38">
@@ -1903,21 +1903,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SBFPFABU076TES1</t>
+          <t>SBFPF2BV153TES1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>60.6</v>
+        <v>54.65</v>
       </c>
       <c r="F38" t="n">
         <v>202241</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>60.9015625</v>
+        <v>54.65</v>
       </c>
       <c r="J38" t="n">
-        <v>2598.466666666667</v>
+        <v>3934.8</v>
       </c>
     </row>
     <row r="39">
@@ -1943,21 +1943,21 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SBFPFABU153TES1</t>
+          <t>SBFPF2BV153TES1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>61.34</v>
+        <v>78.21000000000001</v>
       </c>
       <c r="F39" t="n">
         <v>202241</v>
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>61.36142857142858</v>
+        <v>78.21000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>3084.25</v>
+        <v>1877.04</v>
       </c>
     </row>
     <row r="40">
@@ -1983,21 +1983,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SBFPFABU307TES1</t>
+          <t>SBFPF2BV307TES1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>104.495</v>
+        <v>138.75</v>
       </c>
       <c r="F40" t="n">
         <v>202241</v>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>104.495</v>
+        <v>138.75</v>
       </c>
       <c r="J40" t="n">
-        <v>4806.77</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="41">
@@ -2023,21 +2023,21 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SBFPFABV076TES1</t>
+          <t>SBFPF2BV614TES1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60.66</v>
+        <v>115.555</v>
       </c>
       <c r="F41" t="n">
         <v>202241</v>
@@ -2051,10 +2051,10 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>60.66</v>
+        <v>116.8689312977099</v>
       </c>
       <c r="J41" t="n">
-        <v>485.28</v>
+        <v>3827.4575</v>
       </c>
     </row>
     <row r="42">
@@ -2063,21 +2063,21 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SBFPFABV153TES1</t>
+          <t>SBFPFABU038TES1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ4</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>60.13</v>
+        <v>60.322</v>
       </c>
       <c r="F42" t="n">
         <v>202241</v>
@@ -2091,10 +2091,10 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>60.13</v>
+        <v>60.57756756756758</v>
       </c>
       <c r="J42" t="n">
-        <v>1683.64</v>
+        <v>1793.096</v>
       </c>
     </row>
     <row r="43">
@@ -2103,21 +2103,21 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SBFPFABV307TES1</t>
+          <t>SBFPFABU076TES1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>111.61</v>
+        <v>60.6</v>
       </c>
       <c r="F43" t="n">
         <v>202241</v>
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>114.046</v>
+        <v>60.9015625</v>
       </c>
       <c r="J43" t="n">
-        <v>4561.839999999999</v>
+        <v>2598.466666666667</v>
       </c>
     </row>
     <row r="44">
@@ -2143,21 +2143,21 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SBFPFUBU038TES1</t>
+          <t>SBFPFABU153TES1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>66</v>
+        <v>61.34</v>
       </c>
       <c r="F44" t="n">
         <v>202241</v>
@@ -2171,10 +2171,10 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>66</v>
+        <v>61.36142857142858</v>
       </c>
       <c r="J44" t="n">
-        <v>1848</v>
+        <v>3084.25</v>
       </c>
     </row>
     <row r="45">
@@ -2183,21 +2183,21 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SBFPFUBU076TES1</t>
+          <t>SBFPFABU307TES1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>65.17</v>
+        <v>104.495</v>
       </c>
       <c r="F45" t="n">
         <v>202241</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>65.16941176470588</v>
+        <v>104.495</v>
       </c>
       <c r="J45" t="n">
-        <v>2215.76</v>
+        <v>4806.77</v>
       </c>
     </row>
     <row r="46">
@@ -2223,21 +2223,21 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SBFPFUBU153TES1</t>
+          <t>SBFPFABV076TES1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>73.4988</v>
+        <v>60.66</v>
       </c>
       <c r="F46" t="n">
         <v>202241</v>
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>85.60758620689654</v>
+        <v>60.66</v>
       </c>
       <c r="J46" t="n">
-        <v>3972.192</v>
+        <v>485.28</v>
       </c>
     </row>
     <row r="47">
@@ -2263,22 +2263,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SBFPFWBV153TES1</t>
+          <t>SBFPFABV153TES1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>98.06</v>
-      </c>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
         <v>202241</v>
       </c>
@@ -2290,12 +2288,8 @@
           <t>ACTIVE, WIP, DONE</t>
         </is>
       </c>
-      <c r="I47" t="n">
-        <v>98.05999999999999</v>
-      </c>
-      <c r="J47" t="n">
-        <v>11704.48</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2303,21 +2297,21 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SBFPFWBV307TES1</t>
+          <t>SBFPFABV153TES1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>124.1433333333333</v>
+        <v>60.13</v>
       </c>
       <c r="F48" t="n">
         <v>202241</v>
@@ -2331,10 +2325,10 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>134.7667415730337</v>
+        <v>60.13</v>
       </c>
       <c r="J48" t="n">
-        <v>15992.32</v>
+        <v>1683.64</v>
       </c>
     </row>
     <row r="49">
@@ -2343,21 +2337,21 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SBFPFWBV614TES1</t>
+          <t>SBFPFABV307TES1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>99.88</v>
+        <v>111.61</v>
       </c>
       <c r="F49" t="n">
         <v>202241</v>
@@ -2371,10 +2365,10 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>99.88</v>
+        <v>114.046</v>
       </c>
       <c r="J49" t="n">
-        <v>4661.066666666667</v>
+        <v>4561.839999999999</v>
       </c>
     </row>
     <row r="50">
@@ -2383,21 +2377,21 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SSDPF2KX012T1ES</t>
+          <t>SBFPFUBU038TES1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ADPRR SE (PRQ1)</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.114</v>
+        <v>66</v>
       </c>
       <c r="F50" t="n">
         <v>202241</v>
@@ -2411,10 +2405,10 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>28.11482758620689</v>
+        <v>66</v>
       </c>
       <c r="J50" t="n">
-        <v>2609.056</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="51">
@@ -2423,21 +2417,21 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SSDPF2KX012TZES</t>
+          <t>SBFPFUBU076TES1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ADPR SE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.75600000000001</v>
+        <v>65.17</v>
       </c>
       <c r="F51" t="n">
         <v>202241</v>
@@ -2451,10 +2445,10 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>39.26875</v>
+        <v>65.16941176470588</v>
       </c>
       <c r="J51" t="n">
-        <v>3769.8</v>
+        <v>2215.76</v>
       </c>
     </row>
     <row r="52">
@@ -2463,21 +2457,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SSDPF2KX019T1M1</t>
+          <t>SBFPFUBU153TES1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ADPRR SE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>42.08</v>
+        <v>73.4988</v>
       </c>
       <c r="F52" t="n">
         <v>202241</v>
@@ -2491,10 +2485,10 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>42.08</v>
+        <v>85.60758620689654</v>
       </c>
       <c r="J52" t="n">
-        <v>8416</v>
+        <v>3972.192</v>
       </c>
     </row>
     <row r="53">
@@ -2503,21 +2497,21 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SSDPF2KX076T1ES</t>
+          <t>SBFPFWBV153TES1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ADPRR SE (PRQ1)</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>45.31</v>
+        <v>97.68666666666667</v>
       </c>
       <c r="F53" t="n">
         <v>202241</v>
@@ -2531,10 +2525,10 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>45.31</v>
+        <v>97.53733333333334</v>
       </c>
       <c r="J53" t="n">
-        <v>181.24</v>
+        <v>11704.48</v>
       </c>
     </row>
     <row r="54">
@@ -2543,21 +2537,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SSDPF2KX153T1N1</t>
+          <t>SBFPFWBV153TES1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ADPRR SE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>104.48</v>
+        <v>98.06</v>
       </c>
       <c r="F54" t="n">
         <v>202241</v>
@@ -2571,10 +2565,10 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>104.48</v>
+        <v>98.05999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>20896</v>
+        <v>2745.68</v>
       </c>
     </row>
     <row r="55">
@@ -2583,21 +2577,21 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SSDPF2NV017TZES</t>
+          <t>SBFPFWBV307TES1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ADPR VE (PRQ2)</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.87</v>
+        <v>124.1433333333333</v>
       </c>
       <c r="F55" t="n">
         <v>202241</v>
@@ -2611,10 +2605,10 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>26.87</v>
+        <v>134.7667415730337</v>
       </c>
       <c r="J55" t="n">
-        <v>2579.52</v>
+        <v>15992.32</v>
       </c>
     </row>
     <row r="56">
@@ -2623,21 +2617,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SSDPFCKE064T1S1</t>
+          <t>SBFPFWBV307TES1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ADPRR ME (PRQ1)</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>69.96499999999999</v>
+        <v>97.50999999999999</v>
       </c>
       <c r="F56" t="n">
         <v>202241</v>
@@ -2651,10 +2645,10 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>69.96499999999999</v>
+        <v>97.50999999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>13993</v>
+        <v>2340.24</v>
       </c>
     </row>
     <row r="57">
@@ -2663,21 +2657,21 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SSDPFUKX019T1AP</t>
+          <t>SBFPFWBV614TES1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ADPRR SE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>53.06999999999999</v>
+        <v>99.88</v>
       </c>
       <c r="F57" t="n">
         <v>202241</v>
@@ -2691,10 +2685,10 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>53.06999999999999</v>
+        <v>99.88</v>
       </c>
       <c r="J57" t="n">
-        <v>424.5599999999999</v>
+        <v>4661.066666666667</v>
       </c>
     </row>
     <row r="58">
@@ -2703,21 +2697,21 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SSDPFUKX076T1AP</t>
+          <t>SSDPF2KX012T1ES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRR SE (PRQ1)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ADPRR SE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58.67</v>
+        <v>28.114</v>
       </c>
       <c r="F58" t="n">
         <v>202241</v>
@@ -2731,10 +2725,10 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>58.67</v>
+        <v>28.11482758620689</v>
       </c>
       <c r="J58" t="n">
-        <v>469.36</v>
+        <v>2609.056</v>
       </c>
     </row>
     <row r="59">
@@ -2743,21 +2737,21 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SSDPFWKX153T1M2</t>
+          <t>SSDPF2KX012TZES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPR SE</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ADPRR SE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>108.97</v>
+        <v>36.75600000000001</v>
       </c>
       <c r="F59" t="n">
         <v>202241</v>
@@ -2771,10 +2765,10 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>108.97</v>
+        <v>39.26875</v>
       </c>
       <c r="J59" t="n">
-        <v>871.76</v>
+        <v>3769.8</v>
       </c>
     </row>
     <row r="60">
@@ -2783,21 +2777,21 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SSDPFWKX153T8M2</t>
+          <t>SSDPF2KX019T1M1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRR SE</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CDR SE EDSFF</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>104.53</v>
+        <v>42.08</v>
       </c>
       <c r="F60" t="n">
         <v>202241</v>
@@ -2811,10 +2805,10 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>104.53</v>
+        <v>42.08</v>
       </c>
       <c r="J60" t="n">
-        <v>1254.36</v>
+        <v>8416</v>
       </c>
     </row>
     <row r="61">
@@ -2823,21 +2817,21 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SSDPHAKX025TZES</t>
+          <t>SSDPF2KX076T1ES</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRR SE (PRQ1)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>161.56</v>
+        <v>45.31</v>
       </c>
       <c r="F61" t="n">
         <v>202241</v>
@@ -2851,10 +2845,10 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>161.56</v>
+        <v>45.31</v>
       </c>
       <c r="J61" t="n">
-        <v>1938.72</v>
+        <v>181.24</v>
       </c>
     </row>
     <row r="62">
@@ -2863,21 +2857,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SSDSC2KB038TZ01</t>
+          <t>SSDPF2KX153T1N1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPRR SE</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>YV RR SE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>21.69</v>
+        <v>104.48</v>
       </c>
       <c r="F62" t="n">
         <v>202241</v>
@@ -2891,10 +2885,10 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>21.68999999999999</v>
+        <v>104.48</v>
       </c>
       <c r="J62" t="n">
-        <v>2342.52</v>
+        <v>20896</v>
       </c>
     </row>
     <row r="63">
@@ -2903,21 +2897,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SSDSC2KB076TZ01</t>
+          <t>SSDPF2NV017TZES</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>ADPR VE (PRQ2)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>YV RR SE</t>
+          <t>PTI TAIWAN</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>22.09</v>
+        <v>26.87</v>
       </c>
       <c r="F63" t="n">
         <v>202241</v>
@@ -2931,10 +2925,10 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>22.09</v>
+        <v>26.87</v>
       </c>
       <c r="J63" t="n">
-        <v>2076.46</v>
+        <v>2579.52</v>
       </c>
     </row>
     <row r="64">
@@ -2943,37 +2937,357 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>SSDPFCKE064T1S1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ADPRR ME (PRQ1)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>69.96499999999999</v>
+      </c>
+      <c r="F64" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G64" t="n">
+        <v>202253</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>69.96499999999999</v>
+      </c>
+      <c r="J64" t="n">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SSDPFUKX019T1AP</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ADPRR SE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>53.06999999999999</v>
+      </c>
+      <c r="F65" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G65" t="n">
+        <v>202253</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>53.06999999999999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>424.5599999999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SSDPFUKX076T1AP</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ADPRR SE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>58.67</v>
+      </c>
+      <c r="F66" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G66" t="n">
+        <v>202253</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>58.67</v>
+      </c>
+      <c r="J66" t="n">
+        <v>469.36</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SSDPFWKX153T1M2</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ADPRR SE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>108.97</v>
+      </c>
+      <c r="F67" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G67" t="n">
+        <v>202253</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>108.97</v>
+      </c>
+      <c r="J67" t="n">
+        <v>871.76</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SSDPFWKX153T8M2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CDR SE EDSFF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>104.53</v>
+      </c>
+      <c r="F68" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G68" t="n">
+        <v>202253</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>104.53</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1254.36</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SSDPHAKX025TZES</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>161.56</v>
+      </c>
+      <c r="F69" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G69" t="n">
+        <v>202253</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>161.56</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1938.72</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SSDSC2KB038TZ01</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>YV RR SE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="F70" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G70" t="n">
+        <v>202253</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>21.68999999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2342.52</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SSDSC2KB076TZ01</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>YV RR SE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="F71" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G71" t="n">
+        <v>202253</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2076.46</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>SSDSC2KB960GZ01</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>YV RR SE</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
         <v>21.64</v>
       </c>
-      <c r="F64" t="n">
-        <v>202241</v>
-      </c>
-      <c r="G64" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="F72" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G72" t="n">
+        <v>202253</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>21.64</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J72" t="n">
         <v>2337.12</v>
       </c>
     </row>

--- a/odm_quote_forecast/anchored_results/NPI PTI & Pega Forecasts.xlsx
+++ b/odm_quote_forecast/anchored_results/NPI PTI & Pega Forecasts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Program Acronym</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Forecast for: BOM+MVA Cost (mean)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>WW Start</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>WW End</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Build Status Used</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Forecast for: BOM+MVA Cost (weighted mean)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Forecast for: Subtotal = NRE+
 Qty*(BOM+MVA) (mean)</t>
@@ -492,32 +497,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FAIRVIEW HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FAIRVIEW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>5.642222222222221</v>
       </c>
-      <c r="F2" t="n">
-        <v>202241</v>
-      </c>
       <c r="G2" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H2" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>5.119069767441861</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>195.6622222222222</v>
       </c>
     </row>
@@ -532,32 +542,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FAIRVIEW HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FAIRVIEW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>5.653999999999999</v>
       </c>
-      <c r="F3" t="n">
-        <v>202241</v>
-      </c>
       <c r="G3" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H3" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>5.738799999999999</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>229.552</v>
       </c>
     </row>
@@ -572,32 +587,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>FAIRVIEW HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FAIRVIEW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>5.642222222222221</v>
       </c>
-      <c r="F4" t="n">
-        <v>202241</v>
-      </c>
       <c r="G4" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H4" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>5.270769230769229</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>304.5333333333332</v>
       </c>
     </row>
@@ -612,28 +632,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>202241</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>202241</v>
+      </c>
+      <c r="H5" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -646,28 +671,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>202241</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>202241</v>
+      </c>
+      <c r="H6" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -680,28 +710,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>202241</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>202241</v>
+      </c>
+      <c r="H7" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -714,32 +749,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>ADPRRR VE</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>45.39</v>
       </c>
-      <c r="F8" t="n">
-        <v>202241</v>
-      </c>
       <c r="G8" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H8" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>45.39</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>6354.6</v>
       </c>
     </row>
@@ -754,32 +794,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>45.39</v>
       </c>
-      <c r="F9" t="n">
-        <v>202241</v>
-      </c>
       <c r="G9" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H9" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v>45.39</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>1815.6</v>
       </c>
     </row>
@@ -794,32 +839,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>45.35</v>
       </c>
-      <c r="F10" t="n">
-        <v>202241</v>
-      </c>
       <c r="G10" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H10" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>45.35000000000001</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>2358.2</v>
       </c>
     </row>
@@ -834,32 +884,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>45.41</v>
       </c>
-      <c r="F11" t="n">
-        <v>202241</v>
-      </c>
       <c r="G11" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H11" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>45.41</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>7810.52</v>
       </c>
     </row>
@@ -874,32 +929,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>120.88</v>
       </c>
-      <c r="F12" t="n">
-        <v>202241</v>
-      </c>
       <c r="G12" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H12" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>120.88</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>12692.4</v>
       </c>
     </row>
@@ -914,28 +974,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>202241</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>202241</v>
+      </c>
+      <c r="H13" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -948,32 +1013,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>53.78</v>
       </c>
-      <c r="F14" t="n">
-        <v>202241</v>
-      </c>
       <c r="G14" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H14" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v>53.78</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>1290.72</v>
       </c>
     </row>
@@ -988,32 +1058,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>53.02</v>
       </c>
-      <c r="F15" t="n">
-        <v>202241</v>
-      </c>
       <c r="G15" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H15" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>53.02</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>1060.4</v>
       </c>
     </row>
@@ -1028,32 +1103,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>52.96</v>
       </c>
-      <c r="F16" t="n">
-        <v>202241</v>
-      </c>
       <c r="G16" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H16" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v>52.96</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>5084.16</v>
       </c>
     </row>
@@ -1068,32 +1148,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>53.02</v>
       </c>
-      <c r="F17" t="n">
-        <v>202241</v>
-      </c>
       <c r="G17" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H17" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v>53.02</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>2438.92</v>
       </c>
     </row>
@@ -1108,32 +1193,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>ADPRRR VE</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>121.16</v>
       </c>
-      <c r="F18" t="n">
-        <v>202241</v>
-      </c>
       <c r="G18" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H18" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>121.16</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>13085.28</v>
       </c>
     </row>
@@ -1148,32 +1238,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>ADPRRR VE</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>120.72</v>
       </c>
-      <c r="F19" t="n">
-        <v>202241</v>
-      </c>
       <c r="G19" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H19" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>120.72</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>12554.88</v>
       </c>
     </row>
@@ -1188,32 +1283,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>ADPR SE</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>37.7</v>
       </c>
-      <c r="F20" t="n">
-        <v>202241</v>
-      </c>
       <c r="G20" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H20" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
         <v>37.7</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>2865.2</v>
       </c>
     </row>
@@ -1228,32 +1328,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>ADPR SE</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>37.7</v>
       </c>
-      <c r="F21" t="n">
-        <v>202241</v>
-      </c>
       <c r="G21" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H21" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
         <v>37.7</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>6032</v>
       </c>
     </row>
@@ -1268,32 +1373,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>ADPR SE</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>37.7</v>
       </c>
-      <c r="F22" t="n">
-        <v>202241</v>
-      </c>
       <c r="G22" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H22" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
         <v>37.7</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>452.4</v>
       </c>
     </row>
@@ -1308,32 +1418,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>EH</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>5.79</v>
       </c>
-      <c r="F23" t="n">
-        <v>202241</v>
-      </c>
       <c r="G23" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H23" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
         <v>5.79</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>277.92</v>
       </c>
     </row>
@@ -1348,32 +1463,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>EH</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>5.79</v>
       </c>
-      <c r="F24" t="n">
-        <v>202241</v>
-      </c>
       <c r="G24" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H24" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
         <v>5.79</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>555.84</v>
       </c>
     </row>
@@ -1388,32 +1508,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>EH</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>5.79</v>
       </c>
-      <c r="F25" t="n">
-        <v>202241</v>
-      </c>
       <c r="G25" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H25" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
         <v>5.79</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>648.48</v>
       </c>
     </row>
@@ -1428,32 +1553,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>NPSG PATHFINDING</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>45.98</v>
       </c>
-      <c r="F26" t="n">
-        <v>202241</v>
-      </c>
       <c r="G26" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H26" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
         <v>45.98</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>4414.08</v>
       </c>
     </row>
@@ -1468,32 +1598,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>FAIRVIEW HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>FAIRVIEW</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>9.91</v>
       </c>
-      <c r="F27" t="n">
-        <v>202241</v>
-      </c>
       <c r="G27" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H27" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
         <v>9.91</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>356.76</v>
       </c>
     </row>
@@ -1508,32 +1643,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>38.89090909090909</v>
       </c>
-      <c r="F28" t="n">
-        <v>202241</v>
-      </c>
       <c r="G28" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H28" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
         <v>40.25467532467533</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>3099.454545454545</v>
       </c>
     </row>
@@ -1548,32 +1688,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>48.2925</v>
       </c>
-      <c r="F29" t="n">
-        <v>202241</v>
-      </c>
       <c r="G29" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H29" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
         <v>48.3135294117647</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>4106.65</v>
       </c>
     </row>
@@ -1588,32 +1733,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>49.555</v>
       </c>
-      <c r="F30" t="n">
-        <v>202241</v>
-      </c>
       <c r="G30" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H30" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
         <v>49.59975308641975</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>4017.58</v>
       </c>
     </row>
@@ -1628,32 +1778,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>55.515</v>
       </c>
-      <c r="F31" t="n">
-        <v>202241</v>
-      </c>
       <c r="G31" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H31" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
         <v>55.55952380952381</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>2333.5</v>
       </c>
     </row>
@@ -1668,32 +1823,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>106.09</v>
       </c>
-      <c r="F32" t="n">
-        <v>202241</v>
-      </c>
       <c r="G32" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H32" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
         <v>106.0923188405797</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>5490.2775</v>
       </c>
     </row>
@@ -1708,32 +1868,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>ADPRRR VE</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>48.47</v>
       </c>
-      <c r="F33" t="n">
-        <v>202241</v>
-      </c>
       <c r="G33" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H33" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
         <v>48.38590163934425</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>11806.16</v>
       </c>
     </row>
@@ -1748,32 +1913,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ4</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>49.12</v>
       </c>
-      <c r="F34" t="n">
-        <v>202241</v>
-      </c>
       <c r="G34" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H34" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
         <v>49.12</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>7073.280000000001</v>
       </c>
     </row>
@@ -1788,32 +1958,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>NPSG PATHFINDING</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>110.21</v>
       </c>
-      <c r="F35" t="n">
-        <v>202241</v>
-      </c>
       <c r="G35" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H35" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
         <v>56.78142857142858</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>2384.82</v>
       </c>
     </row>
@@ -1828,32 +2003,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>48.67999999999999</v>
       </c>
-      <c r="F36" t="n">
-        <v>202241</v>
-      </c>
       <c r="G36" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H36" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
         <v>48.67999999999999</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>4283.839999999999</v>
       </c>
     </row>
@@ -1868,32 +2048,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>55.70000000000001</v>
       </c>
-      <c r="F37" t="n">
-        <v>202241</v>
-      </c>
       <c r="G37" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H37" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
         <v>55.7</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>3639.066666666667</v>
       </c>
     </row>
@@ -1908,32 +2093,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ4</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>54.65</v>
       </c>
-      <c r="F38" t="n">
-        <v>202241</v>
-      </c>
       <c r="G38" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H38" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
         <v>54.65</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>3934.8</v>
       </c>
     </row>
@@ -1948,32 +2138,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>NPSG PATHFINDING</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>78.21000000000001</v>
       </c>
-      <c r="F39" t="n">
-        <v>202241</v>
-      </c>
       <c r="G39" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H39" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
         <v>78.21000000000001</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>1877.04</v>
       </c>
     </row>
@@ -1988,32 +2183,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>138.75</v>
       </c>
-      <c r="F40" t="n">
-        <v>202241</v>
-      </c>
       <c r="G40" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H40" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
         <v>138.75</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>5550</v>
       </c>
     </row>
@@ -2028,32 +2228,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>115.555</v>
       </c>
-      <c r="F41" t="n">
-        <v>202241</v>
-      </c>
       <c r="G41" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H41" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
         <v>116.8689312977099</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>3827.4575</v>
       </c>
     </row>
@@ -2068,32 +2273,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>60.322</v>
       </c>
-      <c r="F42" t="n">
-        <v>202241</v>
-      </c>
       <c r="G42" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H42" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
         <v>60.57756756756758</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>1793.096</v>
       </c>
     </row>
@@ -2108,32 +2318,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>60.6</v>
       </c>
-      <c r="F43" t="n">
-        <v>202241</v>
-      </c>
       <c r="G43" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H43" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
         <v>60.9015625</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>2598.466666666667</v>
       </c>
     </row>
@@ -2148,32 +2363,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>61.34</v>
       </c>
-      <c r="F44" t="n">
-        <v>202241</v>
-      </c>
       <c r="G44" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H44" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
         <v>61.36142857142858</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>3084.25</v>
       </c>
     </row>
@@ -2188,32 +2408,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>104.495</v>
       </c>
-      <c r="F45" t="n">
-        <v>202241</v>
-      </c>
       <c r="G45" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H45" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
         <v>104.495</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>4806.77</v>
       </c>
     </row>
@@ -2228,32 +2453,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>60.66</v>
       </c>
-      <c r="F46" t="n">
-        <v>202241</v>
-      </c>
       <c r="G46" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H46" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
         <v>60.66</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>485.28</v>
       </c>
     </row>
@@ -2268,28 +2498,33 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="n">
-        <v>202241</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>202241</v>
+      </c>
+      <c r="H47" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2302,32 +2537,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ4</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ4</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>60.13</v>
       </c>
-      <c r="F48" t="n">
-        <v>202241</v>
-      </c>
       <c r="G48" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H48" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
         <v>60.13</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>1683.64</v>
       </c>
     </row>
@@ -2342,32 +2582,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>111.61</v>
       </c>
-      <c r="F49" t="n">
-        <v>202241</v>
-      </c>
       <c r="G49" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H49" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
         <v>114.046</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>4561.839999999999</v>
       </c>
     </row>
@@ -2382,32 +2627,37 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>66</v>
       </c>
-      <c r="F50" t="n">
-        <v>202241</v>
-      </c>
       <c r="G50" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H50" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
         <v>66</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>1848</v>
       </c>
     </row>
@@ -2422,32 +2672,37 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>65.17</v>
       </c>
-      <c r="F51" t="n">
-        <v>202241</v>
-      </c>
       <c r="G51" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H51" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
         <v>65.16941176470588</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>2215.76</v>
       </c>
     </row>
@@ -2462,32 +2717,37 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>73.4988</v>
       </c>
-      <c r="F52" t="n">
-        <v>202241</v>
-      </c>
       <c r="G52" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H52" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
         <v>85.60758620689654</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>3972.192</v>
       </c>
     </row>
@@ -2502,32 +2762,37 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>ADPRRR VE</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>97.68666666666667</v>
       </c>
-      <c r="F53" t="n">
-        <v>202241</v>
-      </c>
       <c r="G53" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H53" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
         <v>97.53733333333334</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>11704.48</v>
       </c>
     </row>
@@ -2542,32 +2807,37 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>98.06</v>
       </c>
-      <c r="F54" t="n">
-        <v>202241</v>
-      </c>
       <c r="G54" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H54" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
         <v>98.05999999999999</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>2745.68</v>
       </c>
     </row>
@@ -2582,32 +2852,37 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>ADPRRR VE</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>124.1433333333333</v>
       </c>
-      <c r="F55" t="n">
-        <v>202241</v>
-      </c>
       <c r="G55" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H55" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
         <v>134.7667415730337</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>15992.32</v>
       </c>
     </row>
@@ -2622,32 +2897,37 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>97.50999999999999</v>
       </c>
-      <c r="F56" t="n">
-        <v>202241</v>
-      </c>
       <c r="G56" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H56" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
         <v>97.50999999999999</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>2340.24</v>
       </c>
     </row>
@@ -2662,32 +2942,37 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>99.88</v>
       </c>
-      <c r="F57" t="n">
-        <v>202241</v>
-      </c>
       <c r="G57" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H57" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
         <v>99.88</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>4661.066666666667</v>
       </c>
     </row>
@@ -2702,32 +2987,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RR SE PRQ1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>ADPRR SE (PRQ1)</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>28.114</v>
       </c>
-      <c r="F58" t="n">
-        <v>202241</v>
-      </c>
       <c r="G58" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H58" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
         <v>28.11482758620689</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>2609.056</v>
       </c>
     </row>
@@ -2742,32 +3032,37 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>ADPR SE</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>36.75600000000001</v>
       </c>
-      <c r="F59" t="n">
-        <v>202241</v>
-      </c>
       <c r="G59" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H59" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
         <v>39.26875</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>3769.8</v>
       </c>
     </row>
@@ -2782,32 +3077,37 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RR SE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>ADPRR SE</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>42.08</v>
       </c>
-      <c r="F60" t="n">
-        <v>202241</v>
-      </c>
       <c r="G60" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H60" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
         <v>42.08</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>8416</v>
       </c>
     </row>
@@ -2822,32 +3122,37 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RR SE PRQ1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>ADPRR SE (PRQ1)</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>45.31</v>
       </c>
-      <c r="F61" t="n">
-        <v>202241</v>
-      </c>
       <c r="G61" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H61" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
         <v>45.31</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>181.24</v>
       </c>
     </row>
@@ -2862,32 +3167,37 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RR SE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>ADPRR SE</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>104.48</v>
       </c>
-      <c r="F62" t="n">
-        <v>202241</v>
-      </c>
       <c r="G62" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H62" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
         <v>104.48</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>20896</v>
       </c>
     </row>
@@ -2902,32 +3212,37 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS R VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>ADPR VE (PRQ2)</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>26.87</v>
       </c>
-      <c r="F63" t="n">
-        <v>202241</v>
-      </c>
       <c r="G63" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H63" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
         <v>26.87</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>2579.52</v>
       </c>
     </row>
@@ -2942,32 +3257,37 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RR ME</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>ADPRR ME (PRQ1)</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>69.96499999999999</v>
       </c>
-      <c r="F64" t="n">
-        <v>202241</v>
-      </c>
       <c r="G64" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H64" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
         <v>69.96499999999999</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>13993</v>
       </c>
     </row>
@@ -2982,32 +3302,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RR SE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>ADPRR SE</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>53.06999999999999</v>
       </c>
-      <c r="F65" t="n">
-        <v>202241</v>
-      </c>
       <c r="G65" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H65" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
         <v>53.06999999999999</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>424.5599999999999</v>
       </c>
     </row>
@@ -3022,32 +3347,37 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RR SE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>ADPRR SE</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>58.67</v>
       </c>
-      <c r="F66" t="n">
-        <v>202241</v>
-      </c>
       <c r="G66" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H66" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
         <v>58.67</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>469.36</v>
       </c>
     </row>
@@ -3062,32 +3392,37 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RR SE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>ADPRR SE</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>108.97</v>
       </c>
-      <c r="F67" t="n">
-        <v>202241</v>
-      </c>
       <c r="G67" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H67" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
         <v>108.97</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>871.76</v>
       </c>
     </row>
@@ -3110,24 +3445,29 @@
           <t>PTI TAIWAN</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>CDR SE EDSFF</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
         <v>104.53</v>
       </c>
-      <c r="F68" t="n">
-        <v>202241</v>
-      </c>
       <c r="G68" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H68" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
         <v>104.53</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>1254.36</v>
       </c>
     </row>
@@ -3142,32 +3482,37 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>NPSG PATHFINDING</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>161.56</v>
       </c>
-      <c r="F69" t="n">
-        <v>202241</v>
-      </c>
       <c r="G69" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H69" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
         <v>161.56</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>1938.72</v>
       </c>
     </row>
@@ -3182,32 +3527,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>YOUNGSVILLE RR SE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>YV RR SE</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>21.69</v>
       </c>
-      <c r="F70" t="n">
-        <v>202241</v>
-      </c>
       <c r="G70" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H70" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
         <v>21.68999999999999</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>2342.52</v>
       </c>
     </row>
@@ -3222,32 +3572,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>YOUNGSVILLE RR SE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>YV RR SE</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>22.09</v>
       </c>
-      <c r="F71" t="n">
-        <v>202241</v>
-      </c>
       <c r="G71" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H71" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
         <v>22.09</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>2076.46</v>
       </c>
     </row>
@@ -3262,32 +3617,37 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>YOUNGSVILLE RR SE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>YV RR SE</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>21.64</v>
       </c>
-      <c r="F72" t="n">
-        <v>202241</v>
-      </c>
       <c r="G72" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H72" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
         <v>21.64</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>2337.12</v>
       </c>
     </row>

--- a/odm_quote_forecast/anchored_results/NPI PTI & Pega Forecasts.xlsx
+++ b/odm_quote_forecast/anchored_results/NPI PTI & Pega Forecasts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
         <v>202241</v>
       </c>
       <c r="G2" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SBDPFKBP020T</t>
+          <t>SBDPFKBP010TES1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5.653999999999999</v>
+        <v>6.119999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>202241</v>
       </c>
       <c r="G3" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -585,25 +585,25 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4900000485.0, 4900000487.0, 4900000797.0, 4900001104.0, 4900001105.0, 4900001106.0, 4900001107.0, 4900001108.0, 4900001109.0, 4900001110.0</t>
+          <t>4900001159.0, 4900001164.0, 4900001165.0, 4900001232.0, 4900001233.0, 4900001234.0, 4900001235.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>NaN, 20220929 (placeholder quote), 20221123</t>
+          <t>20230103, 20230131</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>5.738799999999999</v>
+        <v>6.120000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>229.552</v>
+        <v>664.4571428571429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SBDPFKBP512G</t>
+          <t>SBDPFKBP020T</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.642222222222221</v>
+        <v>5.653999999999999</v>
       </c>
       <c r="F4" t="n">
         <v>202241</v>
       </c>
       <c r="G4" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -637,30 +637,30 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4900000483.0, 4900001001.0, 4900001062.0, 4900001057.0, 4900001058.0, 4900001059.0, 4900001060.0, 4900001061.0, 4900001063.0</t>
+          <t>4900000485.0, 4900000487.0, 4900000797.0, 4900001104.0, 4900001105.0, 4900001106.0, 4900001107.0, 4900001108.0, 4900001109.0, 4900001110.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20220929 (placeholder quote), 20221109, 20221123</t>
+          <t>NaN, 20220929 (placeholder quote), 20221123</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5.270769230769229</v>
+        <v>5.738799999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>304.5333333333332</v>
+        <v>229.552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SBFPF2BV025TES1</t>
+          <t>SBDPFKBP020TES1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+          <t>FAIRVIEW HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -670,17 +670,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ADPRRR VE</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>45.39</v>
+        <v>5.997692307692306</v>
       </c>
       <c r="F5" t="n">
         <v>202241</v>
       </c>
       <c r="G5" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -689,30 +689,30 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4900000838.0</t>
+          <t>4900001160.0, 4900001161.0, 4900001163.0, 4900001237.0, 4900001238.0, 4900001265.0, 4900001266.0, 4900001267.0, 4900001349.0, 4900001350.0, 4900001351.0, 4900001352.0, 4900001353.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20220927.0</t>
+          <t>20230103, 20230131, 20230302</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>45.39</v>
+        <v>6.126690647482014</v>
       </c>
       <c r="L5" t="n">
-        <v>6354.6</v>
+        <v>524.0676923076923</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SBFPF2BV025TES1</t>
+          <t>SBDPFKBP512G</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>FAIRVIEW HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>45.39</v>
+        <v>5.642222222222221</v>
       </c>
       <c r="F6" t="n">
         <v>202241</v>
       </c>
       <c r="G6" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -741,30 +741,30 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4900001008.0</t>
+          <t>4900000483.0, 4900001001.0, 4900001062.0, 4900001057.0, 4900001058.0, 4900001059.0, 4900001060.0, 4900001061.0, 4900001063.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20221111.0</t>
+          <t>20220929 (placeholder quote), 20221109, 20221123</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>45.39</v>
+        <v>5.270769230769229</v>
       </c>
       <c r="L6" t="n">
-        <v>1815.6</v>
+        <v>304.5333333333332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SBFPF2BV076TES1</t>
+          <t>SBDPFKBP512GES1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>FAIRVIEW HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -774,17 +774,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>45.35</v>
+        <v>5.953846153846154</v>
       </c>
       <c r="F7" t="n">
         <v>202241</v>
       </c>
       <c r="G7" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -793,30 +793,30 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4900001011.0, 4900001012.0</t>
+          <t>4900001162.0, 4900001166.0, 4900001167.0, 4900001228.0, 4900001229.0, 4900001230.0, 4900001231.0, 4900001440.0, 4900001441.0, 4900001442.0, 4900001443.0, 4900001444.0, 4900001445.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20221111.0</t>
+          <t>20230103, 20230131, 20230310</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>45.35000000000001</v>
+        <v>6.099230769230768</v>
       </c>
       <c r="L7" t="n">
-        <v>2358.2</v>
+        <v>390.3507692307692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SBFPF2BV153TES1</t>
+          <t>SBFPF2BU038TES1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>45.41</v>
+        <v>45.12</v>
       </c>
       <c r="F8" t="n">
         <v>202241</v>
       </c>
       <c r="G8" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -845,30 +845,30 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4900001007.0</t>
+          <t>4900001117.0, 4900001118.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20221111.0</t>
+          <t>20221222.0</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>45.41</v>
+        <v>45.12</v>
       </c>
       <c r="L8" t="n">
-        <v>7810.52</v>
+        <v>3158.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SBFPF2BV307TES1</t>
+          <t>SBFPF2BU076TES1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -878,17 +878,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>120.88</v>
+        <v>44.69</v>
       </c>
       <c r="F9" t="n">
         <v>202241</v>
       </c>
       <c r="G9" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -897,25 +897,25 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4900001009.0, 4900001010.0</t>
+          <t>4900001119.0, 4900001120.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20221111.0</t>
+          <t>20221222.0</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>120.88</v>
+        <v>44.69</v>
       </c>
       <c r="L9" t="n">
-        <v>12692.4</v>
+        <v>3128.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SBFPFABU076TES1</t>
+          <t>SBFPF2BU153TES1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.78</v>
+        <v>45.23</v>
       </c>
       <c r="F10" t="n">
         <v>202241</v>
       </c>
       <c r="G10" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -949,30 +949,30 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4900001072.0</t>
+          <t>4900001123.0, 4900001124.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20221123.0</t>
+          <t>20221222.0</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>53.78</v>
+        <v>45.23</v>
       </c>
       <c r="L10" t="n">
-        <v>1290.72</v>
+        <v>1990.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SBFPFABU153TES1</t>
+          <t>SBFPF2BU307TES1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -982,17 +982,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.02</v>
+        <v>128.97</v>
       </c>
       <c r="F11" t="n">
         <v>202241</v>
       </c>
       <c r="G11" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1001,25 +1001,25 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4900001073.0</t>
+          <t>4900001247.0, 4900001248.0, 4900001249.0, 4900001250.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20221123.0</t>
+          <t>20221222</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>53.02</v>
+        <v>128.97</v>
       </c>
       <c r="L11" t="n">
-        <v>1060.4</v>
+        <v>6029.3475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SBFPFWBV153TES1</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>121.16</v>
+        <v>45.39</v>
       </c>
       <c r="F12" t="n">
         <v>202241</v>
       </c>
       <c r="G12" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4900000839.0, 4900000840.0</t>
+          <t>4900000838.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>121.16</v>
+        <v>45.39</v>
       </c>
       <c r="L12" t="n">
-        <v>13085.28</v>
+        <v>6354.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SBFPFWBV307TES1</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1086,17 +1086,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ADPRRR VE</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>120.72</v>
+        <v>44.81</v>
       </c>
       <c r="F13" t="n">
         <v>202241</v>
       </c>
       <c r="G13" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1105,30 +1105,30 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4900000841.0, 4900000842.0</t>
+          <t>4900001008.0, 4900001339.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20220927.0</t>
+          <t>20221111.0, 20230210.0</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>120.72</v>
+        <v>45.12230769230769</v>
       </c>
       <c r="L13" t="n">
-        <v>12554.88</v>
+        <v>1173.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SSDPF2KX012TZES</t>
+          <t>SBFPF2BV076TES1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS R SE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1138,17 +1138,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ADPR SE</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>37.7</v>
+        <v>44.87</v>
       </c>
       <c r="F14" t="n">
         <v>202241</v>
       </c>
       <c r="G14" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1157,30 +1157,30 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4900000488.0</t>
+          <t>4900001011.0, 4900001012.0, 4900001340.0, 4900001341.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20221012</t>
+          <t>20221111.0, 20230210.0</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>37.7</v>
+        <v>44.84381818181818</v>
       </c>
       <c r="L14" t="n">
-        <v>452.4</v>
+        <v>2466.41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SSDPF2KX038TZES</t>
+          <t>SBFPF2BV153TES1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS R SE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1190,17 +1190,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ADPR SE</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37.7</v>
+        <v>45.41</v>
       </c>
       <c r="F15" t="n">
         <v>202241</v>
       </c>
       <c r="G15" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1209,30 +1209,30 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4900000792.0, 4900000791.0, 4900000793.0, 4900000794.0, 4900000795.0</t>
+          <t>4900001007.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20221012</t>
+          <t>20221111.0</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>37.7</v>
+        <v>45.41</v>
       </c>
       <c r="L15" t="n">
-        <v>6273.280000000001</v>
+        <v>7810.52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SSDPF2KX076TZES</t>
+          <t>SBFPF2BV307TES1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS R SE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ADPR SE</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.7</v>
+        <v>122.78</v>
       </c>
       <c r="F16" t="n">
         <v>202241</v>
       </c>
       <c r="G16" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1261,30 +1261,30 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4900000796.0</t>
+          <t>4900001009.0, 4900001010.0, 4900001342.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20221012</t>
+          <t>20221111.0, 20230210.0</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>37.7</v>
+        <v>121.7727710843373</v>
       </c>
       <c r="L16" t="n">
-        <v>6786.000000000001</v>
+        <v>10107.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SSDPFINU512GZ1S</t>
+          <t>SBFPFABU038TES1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECHO HARBOR PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1294,17 +1294,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EH PRQ1</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.79</v>
+        <v>52.92</v>
       </c>
       <c r="F17" t="n">
         <v>202241</v>
       </c>
       <c r="G17" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1313,30 +1313,30 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4900001031.0</t>
+          <t>4900001115.0, 4900001116.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>20221222.0</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>5.79</v>
+        <v>52.91999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>277.92</v>
+        <v>2434.32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SSDPFKNU010TZ1H</t>
+          <t>SBFPFABU076TES1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECHO HARBOR PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1346,15 +1346,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>EH PRQ1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ADPRRR EE</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>53.44666666666667</v>
+      </c>
       <c r="F18" t="n">
         <v>202241</v>
       </c>
       <c r="G18" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1363,26 +1365,30 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>4900001072.0, 4900001121.0, 4900001122.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>20221123.0, 20221222.0</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>53.38344827586207</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2064.16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SSDPFKNU010TZ1S</t>
+          <t>SBFPFABU153TES1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECHO HARBOR PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1392,17 +1398,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EH PRQ1</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.79</v>
+        <v>53.09333333333333</v>
       </c>
       <c r="F19" t="n">
         <v>202241</v>
       </c>
       <c r="G19" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1411,30 +1417,30 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4900001032.0, 4900001033.0</t>
+          <t>4900001073.0, 4900001113.0, 4900001114.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>20221123.0, 20221222.0</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>5.79</v>
+        <v>53.11103448275863</v>
       </c>
       <c r="L19" t="n">
-        <v>555.84</v>
+        <v>2053.626666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SSDPFKNU512GZ1H</t>
+          <t>SBFPFABU307TES1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECHO HARBOR PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1444,15 +1450,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EH PRQ1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ADPRRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>111.6</v>
+      </c>
       <c r="F20" t="n">
         <v>202241</v>
       </c>
       <c r="G20" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1461,26 +1469,30 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>4900001243.0, 4900001244.0, 4900001245.0, 4900001246.0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>20221222</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4910.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SSDPFKNU512GZ1S</t>
+          <t>SBFPFUBU038TES1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECHO HARBOR PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1490,17 +1502,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>EH PRQ1</t>
+          <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.79</v>
+        <v>51.26</v>
       </c>
       <c r="F21" t="n">
         <v>202241</v>
       </c>
       <c r="G21" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1509,50 +1521,50 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4900001034.0, 4900001035.0</t>
+          <t>4900001251.0, 4900001252.0, 4900001253.0, 4900001258.0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>20221222</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>5.79</v>
+        <v>51.26</v>
       </c>
       <c r="L21" t="n">
-        <v>648.48</v>
+        <v>1332.76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PFKNU512GZ</t>
+          <t>SBFPFUBU076TES1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NPSG PATHFINDING</t>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>45.98</v>
+        <v>52.7</v>
       </c>
       <c r="F22" t="n">
         <v>202241</v>
       </c>
       <c r="G22" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1561,50 +1573,50 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9000003743.0</t>
+          <t>4900001261.0, 4900001262.0, 4900001263.0, 4900001264.0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20221116.0</t>
+          <t>20221222</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>45.98</v>
+        <v>52.7</v>
       </c>
       <c r="L22" t="n">
-        <v>4414.08</v>
+        <v>1159.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SBDPFKBP010T</t>
+          <t>SBFPFUBU153TES1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FAIRVIEW HARBOR PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FAIRVIEW</t>
+          <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.91</v>
+        <v>50.87</v>
       </c>
       <c r="F23" t="n">
         <v>202241</v>
       </c>
       <c r="G23" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1613,50 +1625,50 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4900001042.0, 4900001043.0</t>
+          <t>4900001254.0, 4900001255.0, 4900001256.0, 4900001257.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20221122.0</t>
+          <t>20221222</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>9.91</v>
+        <v>50.87</v>
       </c>
       <c r="L23" t="n">
-        <v>356.76</v>
+        <v>1220.88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SBFPF2BU012TES1</t>
+          <t>SBFPFWBV153TES1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ1</t>
+          <t>ADPRRR VE</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.83777777777778</v>
+        <v>121.2325</v>
       </c>
       <c r="F24" t="n">
         <v>202241</v>
       </c>
       <c r="G24" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1665,50 +1677,50 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4900001071.0, 4900000515.0, 4900001005.0, 4900001013.0, 4900001015.0, 4900001016.0, 4900001068.0, 4900001111.0, 4900001125.0</t>
+          <t>4900000839.0, 4900000840.0, 4900001307.0, 4900001308.0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20220831.0, 20220829.0, 20220905.0, 20221117.0, 20221201.0, 20221222.0</t>
+          <t>20220927.0, 20221102.0, 20230208.0</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>39.19898245614035</v>
+        <v>121.2088764044944</v>
       </c>
       <c r="L24" t="n">
-        <v>3663.974444444444</v>
+        <v>10787.59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SBFPF2BU038TES1</t>
+          <t>SBFPFWBV153TESF</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ1</t>
+          <t>ADPRRR VE</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>47.97</v>
+        <v>121.45</v>
       </c>
       <c r="F25" t="n">
         <v>202241</v>
       </c>
       <c r="G25" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1717,50 +1729,50 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4900001096.0, 4900001097.0</t>
+          <t>4900001310.0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>20221014.0</t>
+          <t>20230208.0</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>47.97000000000001</v>
+        <v>121.45</v>
       </c>
       <c r="L25" t="n">
-        <v>3837.6</v>
+        <v>9716</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SBFPF2BU076TES1</t>
+          <t>SBFPFWBV307TES1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ1</t>
+          <t>ADPRRR VE</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>49.235</v>
+        <v>120.84</v>
       </c>
       <c r="F26" t="n">
         <v>202241</v>
       </c>
       <c r="G26" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1769,50 +1781,50 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4900001093.0, 4900001094.0</t>
+          <t>4900000841.0, 4900000842.0, 4900001306.0, 4900001309.0, 4900001348.0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20221014.0</t>
+          <t>20220927.0, 20221102.0, 20230208.0, 20230224.0</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>49.23499999999999</v>
+        <v>120.78</v>
       </c>
       <c r="L26" t="n">
-        <v>3347.98</v>
+        <v>8696.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SBFPF2BU153TES1</t>
+          <t>SBFPFWBV307TESF</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ1</t>
+          <t>ADPRRR VE</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>55.19</v>
+        <v>121.02</v>
       </c>
       <c r="F27" t="n">
         <v>202241</v>
       </c>
       <c r="G27" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1821,50 +1833,50 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4900001091.0, 4900001092.0</t>
+          <t>4900001311.0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20221014.0</t>
+          <t>20230208.0</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>55.02</v>
+        <v>121.02</v>
       </c>
       <c r="L27" t="n">
-        <v>1980.72</v>
+        <v>9681.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SBFPF2BU307TES1</t>
+          <t>SSDPF2KX012TZES</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+          <t>ARBORDALE PLUS R HE PRQ1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ2</t>
+          <t>ADPR HE</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>106.09</v>
+        <v>37.7</v>
       </c>
       <c r="F28" t="n">
         <v>202241</v>
       </c>
       <c r="G28" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1873,50 +1885,50 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4900000524.0, 4900000525.0, 4900000526.0, 4900000527.0</t>
+          <t>4900001186.0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>20220912.0</t>
+          <t>20221012.0</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>106.0923188405797</v>
+        <v>37.7</v>
       </c>
       <c r="L28" t="n">
-        <v>5490.2775</v>
+        <v>2714.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SBFPF2BV025TES1</t>
+          <t>SSDPF2KX012TZES</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ADPRRR VE</t>
+          <t>ADPR SE</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>48.47</v>
+        <v>37.7</v>
       </c>
       <c r="F29" t="n">
         <v>202241</v>
       </c>
       <c r="G29" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1925,50 +1937,50 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4900000523.0, 4900001069.0, 4900001070.0</t>
+          <t>4900000488.0, NaN</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20220905.0, 20221201.0</t>
+          <t>20221012, NaN</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>48.38795580110497</v>
+        <v>37.7</v>
       </c>
       <c r="L29" t="n">
-        <v>11677.62666666667</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SBFPF2BV025TES1</t>
+          <t>SSDPF2KX038TZES</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ4</t>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ4</t>
+          <t>ADPR SE</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>49.12</v>
+        <v>37.7</v>
       </c>
       <c r="F30" t="n">
         <v>202241</v>
       </c>
       <c r="G30" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1977,50 +1989,50 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4900001028.0</t>
+          <t>4900000792.0, 4900000791.0, 4900000793.0, 4900000794.0, 4900000795.0, NaN</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20220916.0</t>
+          <t>20221012, NaN</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>49.12</v>
+        <v>37.7</v>
       </c>
       <c r="L30" t="n">
-        <v>7073.280000000001</v>
+        <v>6273.280000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SBFPF2BV025TES1</t>
+          <t>SSDPF2KX076TZES</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NPSG PATHFINDING</t>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>ADPR SE</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>110.21</v>
+        <v>37.7</v>
       </c>
       <c r="F31" t="n">
         <v>202241</v>
       </c>
       <c r="G31" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2029,50 +2041,50 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>4900001047.0, 4900001049.0</t>
+          <t>4900000796.0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20221116.0</t>
+          <t>20221012</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>81.92428571428572</v>
+        <v>37.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1146.94</v>
+        <v>6786.000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SBFPF2BV076TES1</t>
+          <t>SSDPF2SQ120GZES</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>ARBORDALE PLUS R HE PRQ1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>ADPR HE</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>48.67999999999999</v>
+        <v>37.7</v>
       </c>
       <c r="F32" t="n">
         <v>202241</v>
       </c>
       <c r="G32" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2081,50 +2093,50 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4900001017.0, 4900001018.0</t>
+          <t>4900001168.0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20221101.0</t>
+          <t>20221012.0</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>48.67999999999999</v>
+        <v>37.7</v>
       </c>
       <c r="L32" t="n">
-        <v>4283.839999999999</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SBFPF2BV153TES1</t>
+          <t>SSDPF2SQ800GZES</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>ARBORDALE PLUS R HE PRQ1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>ADPR HE</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>55.70000000000001</v>
+        <v>38.04</v>
       </c>
       <c r="F33" t="n">
         <v>202241</v>
       </c>
       <c r="G33" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2133,50 +2145,50 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>4900001021.0, 4900001022.0, 4900001023.0</t>
+          <t>4900001169.0, 4900001170.0, 4900001288.0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>20221101.0</t>
+          <t>20221012.0, 20230206.0</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>55.7</v>
+        <v>38.01166666666667</v>
       </c>
       <c r="L33" t="n">
-        <v>3639.066666666667</v>
+        <v>3649.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SBFPF2BV153TES1</t>
+          <t>SSDPFINU010TZ1S</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ4</t>
+          <t>ECHO HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ4</t>
+          <t>EH PRQ1</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>54.65</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="F34" t="n">
         <v>202241</v>
       </c>
       <c r="G34" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2185,50 +2197,50 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>4900001030.0</t>
+          <t>NaN, 4900001259.0, 4900001421.0, 4900001422.0, 4900001423.0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20220915.0</t>
+          <t>20221222.0, 20230203.0, 20230310.0</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>54.65</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="L34" t="n">
-        <v>3934.8</v>
+        <v>862.4000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SBFPF2BV307TES1</t>
+          <t>SSDPFINU512GZ1S</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>ECHO HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>EH PRQ1</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>138.75</v>
+        <v>5.438888888888889</v>
       </c>
       <c r="F35" t="n">
         <v>202241</v>
       </c>
       <c r="G35" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2237,50 +2249,48 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4900001019.0, 4900001020.0</t>
+          <t>4900001031.0, NaN, 4900001260.0, 4900001427.0, 4900001428.0, 4900001429.0, 4900001430.0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>20221101.0, 20221107.0</t>
+          <t>NaN, 20221214.0, 20221222.0, 20230203.0, 20230310.0</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>138.75</v>
+        <v>5.408717948717949</v>
       </c>
       <c r="L35" t="n">
-        <v>5550</v>
+        <v>750.0088888888889</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SBFPF2BV614TES1</t>
+          <t>SSDPFKNU010TZ1H</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>ECHO HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>115.555</v>
-      </c>
+          <t>EH PRQ1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
         <v>202241</v>
       </c>
       <c r="G36" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2289,50 +2299,46 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4900000908.0, 4900000909.0, 4900000910.0, 4900000911.0</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>20221004.0, 20220927.0, 20221031.0</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>116.8689312977099</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3827.4575</v>
-      </c>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SBFPFABU038TES1</t>
+          <t>SSDPFKNU010TZ1S</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+          <t>ECHO HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ1</t>
+          <t>EH PRQ1</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>59.91666666666666</v>
+        <v>5.795</v>
       </c>
       <c r="F37" t="n">
         <v>202241</v>
       </c>
       <c r="G37" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2341,50 +2347,48 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4900001014.0, 4900001089.0, 4900001090.0</t>
+          <t>4900001032.0, 4900001033.0, NaN, 4900001424.0, 4900001425.0, 4900001426.0, 4900001435.0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20221117.0, 20221014.0</t>
+          <t>NaN, 20221214.0, 20230310.0, 20230316.0</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>59.79833333333334</v>
+        <v>5.784383561643835</v>
       </c>
       <c r="L37" t="n">
-        <v>956.7733333333334</v>
+        <v>844.52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SBFPFABU076TES1</t>
+          <t>SSDPFKNU512GZ1H</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+          <t>ECHO HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ1</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>59.40000000000001</v>
-      </c>
+          <t>EH PRQ1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
         <v>202241</v>
       </c>
       <c r="G38" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2393,50 +2397,46 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4900001095.0</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20221014.0</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1188</v>
-      </c>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SBFPFABU153TES1</t>
+          <t>SSDPFKNU512GZ1S</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+          <t>ECHO HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ1</t>
+          <t>EH PRQ1</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>61.29</v>
+        <v>5.792</v>
       </c>
       <c r="F39" t="n">
         <v>202241</v>
       </c>
       <c r="G39" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2445,50 +2445,50 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>4900001088.0, 4900001112.0</t>
+          <t>4900001034.0, 4900001035.0, NaN, 4900001227.0, 4900001338.0, 4900001431.0, 4900001432.0, 4900001433.0, 4900001434.0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20221014.0, 20221207.0</t>
+          <t>NaN, 20221214.0, 20230130.0, 20230217.0, 20230310.0</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>61.29</v>
+        <v>5.783888888888888</v>
       </c>
       <c r="L39" t="n">
-        <v>3099</v>
+        <v>749.5919999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SBFPFABU307TES1</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+          <t>NPSG PATHFINDING</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PTI TAIWAN</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ2</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>104.495</v>
+        <v>229.24</v>
       </c>
       <c r="F40" t="n">
         <v>202241</v>
       </c>
       <c r="G40" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2497,30 +2497,30 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>4900000530.0, 4900000531.0, 4900000532.0, 4900000533.0</t>
+          <t>4900001336.0, 4900001337.0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20220912.0</t>
+          <t>20230210.0</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>104.495</v>
+        <v>229.24</v>
       </c>
       <c r="L40" t="n">
-        <v>4806.77</v>
+        <v>4584.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SBFPFABV076TES1</t>
+          <t>PFKNU512GZ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>NPSG PATHFINDING</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2530,17 +2530,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60.595</v>
+        <v>45.98</v>
       </c>
       <c r="F41" t="n">
         <v>202241</v>
       </c>
       <c r="G41" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2549,30 +2549,30 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>NaN, 4900001210.0</t>
+          <t>9000003743.0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>20220823.0, 20221228.0</t>
+          <t>20221116.0</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>60.595</v>
+        <v>45.98</v>
       </c>
       <c r="L41" t="n">
-        <v>1454.28</v>
+        <v>4414.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SBFPFABV153TES1</t>
+          <t>SBBPH2EX019TES1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>NPSG PATHFINDING</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2582,17 +2582,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>60.64</v>
+        <v>76.22</v>
       </c>
       <c r="F42" t="n">
         <v>202241</v>
       </c>
       <c r="G42" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2601,30 +2601,30 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>4900001409.0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>20220823.0</t>
+          <t>20230303.0</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>60.522</v>
+        <v>76.22</v>
       </c>
       <c r="L42" t="n">
-        <v>1815.66</v>
+        <v>2439.04</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SBFPFABV153TES1</t>
+          <t>SBDPFKBP010T</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ4</t>
+          <t>FAIRVIEW HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2634,17 +2634,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ4</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>60.13</v>
+        <v>9.91</v>
       </c>
       <c r="F43" t="n">
         <v>202241</v>
       </c>
       <c r="G43" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2653,30 +2653,30 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4900001029.0</t>
+          <t>4900001042.0, 4900001043.0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>20220915.0</t>
+          <t>20221122.0</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>60.13</v>
+        <v>9.91</v>
       </c>
       <c r="L43" t="n">
-        <v>1683.64</v>
+        <v>356.76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SBFPFABV307TES1</t>
+          <t>SBDPFKBP010TES1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>FAIRVIEW HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2686,17 +2686,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>105.52</v>
+        <v>9.590000000000002</v>
       </c>
       <c r="F44" t="n">
         <v>202241</v>
       </c>
       <c r="G44" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2705,30 +2705,30 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4900001101.0, 4900001102.0</t>
+          <t>4900001275.0, 4900001276.0, 4900001277.0, 4900001278.0, 4900001279.0, 4900001415.0</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>20221004.0, 20220908.0</t>
+          <t>20230206.0, 20230306.0</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>105.52</v>
+        <v>9.573</v>
       </c>
       <c r="L44" t="n">
-        <v>2532.48</v>
+        <v>510.56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SBFPFUBU038TES1</t>
+          <t>SBDPFKBP020TES1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+          <t>FAIRVIEW HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2738,17 +2738,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ2</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>66</v>
+        <v>9.57</v>
       </c>
       <c r="F45" t="n">
         <v>202241</v>
       </c>
       <c r="G45" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2757,30 +2757,30 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4900000528.0, 4900000529.0, 4900000807.0, 4900000808.0</t>
+          <t>4900001284.0, 4900001285.0, 4900001282.0, 4900001283.0</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>20220916.0, 20220912.0</t>
+          <t>20230206.0</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>66</v>
+        <v>9.57</v>
       </c>
       <c r="L45" t="n">
-        <v>1848</v>
+        <v>229.68</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SBFPFUBU076TES1</t>
+          <t>SBDPFKBP512GES1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+          <t>FAIRVIEW HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2790,17 +2790,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ2</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>65.17</v>
+        <v>9.570000000000002</v>
       </c>
       <c r="F46" t="n">
         <v>202241</v>
       </c>
       <c r="G46" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2809,30 +2809,30 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4900000803.0, 4900000804.0, 4900000805.0, 4900000806.0</t>
+          <t>4900001269.0, 4900001270.0, 4900001271.0, 4900001272.0, 4900001273.0, 4900001274.0, 4900001326.0</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>20220912.0, 20220916.0</t>
+          <t>20230206.0, 20230213.0</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>65.16941176470588</v>
+        <v>9.57</v>
       </c>
       <c r="L46" t="n">
-        <v>2215.76</v>
+        <v>1093.714285714286</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SBFPFUBU153TES1</t>
+          <t>SBFPF2BU012TES1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2842,17 +2842,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ADPRRR EE PRQ2</t>
+          <t>ADPRRR EE PRQ1</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>65.86500000000001</v>
+        <v>37.03642857142857</v>
       </c>
       <c r="F47" t="n">
         <v>202241</v>
       </c>
       <c r="G47" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2861,30 +2861,30 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4900000799.0, 4900000800.0, 4900000801.0, 4900000802.0</t>
+          <t>4900001071.0, 4900000515.0, 4900001005.0, 4900001013.0, 4900001015.0, 4900001016.0, 4900001068.0, 4900001111.0, 4900001125.0, 4900001130.0, 4900001131.0, 4900001004.0, 4900001203.0, 4900001219.0</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>20220912.0, 20220916.0</t>
+          <t>20220831.0, 20220829.0, 20220905.0, 20221117.0, 20221201.0, 20221222.0, 20221124.0, 20230112.0</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>65.86499999999999</v>
+        <v>37.78814415907208</v>
       </c>
       <c r="L47" t="n">
-        <v>1844.22</v>
+        <v>3219.352142857143</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SBFPFWBV153TES1</t>
+          <t>SBFPF2BU038TES1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2894,17 +2894,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ADPRRR VE</t>
+          <t>ADPRRR EE PRQ1</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>97.68666666666667</v>
+        <v>46.20625</v>
       </c>
       <c r="F48" t="n">
         <v>202241</v>
       </c>
       <c r="G48" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2913,30 +2913,30 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4900000521.0, 4900000522.0, 4900001099.0</t>
+          <t>4900001096.0, 4900001097.0, 4900001136.0, 4900001137.0, 4900001294.0, 4900001295.0, 4900001370.0, 4900001371.0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>20220905.0, 20221213.0</t>
+          <t>20221014.0, 20221124.0, 20230118.0, 20230216.0</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>97.53733333333334</v>
+        <v>45.38122529644269</v>
       </c>
       <c r="L48" t="n">
-        <v>11704.48</v>
+        <v>5740.725</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SBFPFWBV153TES1</t>
+          <t>SBFPF2BU038TESF</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2946,17 +2946,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>ADPRRR EE PRQ1</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>98.06</v>
+        <v>44.12</v>
       </c>
       <c r="F49" t="n">
         <v>202241</v>
       </c>
       <c r="G49" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2965,30 +2965,30 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4900001026.0, 4900001027.0</t>
+          <t>4900001372.0, 4900001373.0</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>20221101.0</t>
+          <t>20230216.0</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>98.05999999999999</v>
+        <v>44.13888888888889</v>
       </c>
       <c r="L49" t="n">
-        <v>2745.68</v>
+        <v>794.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SBFPFWBV307TES1</t>
+          <t>SBFPF2BU076TES1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2998,17 +2998,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ADPRRR VE</t>
+          <t>ADPRRR EE PRQ1</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>124.1433333333333</v>
+        <v>46.97</v>
       </c>
       <c r="F50" t="n">
         <v>202241</v>
       </c>
       <c r="G50" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3017,30 +3017,30 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4900001056.0, 4900000520.0, 4900001098.0</t>
+          <t>4900001093.0, 4900001094.0, 4900001134.0, 4900001135.0, 4900001292.0, 4900001293.0, 4900001366.0, 4900001367.0</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>20220905.0, 20221101.0</t>
+          <t>20221014.0, 20221124.0, 20230118.0, 20230216.0</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>134.7667415730337</v>
+        <v>45.23199178644763</v>
       </c>
       <c r="L50" t="n">
-        <v>15992.32</v>
+        <v>11013.99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SBFPFWBV307TES1</t>
+          <t>SBFPF2BU076TESF</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3050,17 +3050,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>ADPRRR EE PRQ1</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>97.50999999999999</v>
+        <v>44.385</v>
       </c>
       <c r="F51" t="n">
         <v>202241</v>
       </c>
       <c r="G51" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3069,30 +3069,30 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>4900001024.0, 4900001025.0</t>
+          <t>4900001368.0, 4900001369.0</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>20221101.0</t>
+          <t>20230216.0</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>97.50999999999999</v>
+        <v>44.38499999999999</v>
       </c>
       <c r="L51" t="n">
-        <v>2340.24</v>
+        <v>1065.24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SBFPFWBV614TES1</t>
+          <t>SBFPF2BU153TES1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>ADPRRR EE PRQ1</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>99.88</v>
+        <v>47.16166666666667</v>
       </c>
       <c r="F52" t="n">
         <v>202241</v>
       </c>
       <c r="G52" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3121,30 +3121,30 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>4900000449.0, 4900000450.0, 4900000451.0</t>
+          <t>4900001091.0, 4900001092.0, 4900001140.0, 4900001141.0, 4900001296.0, 4900001297.0, 4900001410.0, 4900001363.0, 4900001364.0, 4900001414.0, 4900001453.0, 4900001455.0</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>20220908.0, 20220927.0</t>
+          <t>20221014.0, 20221201.0, 20230118.0, 20230309.0, 20230216.0, 20230313.0, 20230316.0</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>99.88</v>
+        <v>44.69365595611286</v>
       </c>
       <c r="L52" t="n">
-        <v>4661.066666666667</v>
+        <v>19009.70166666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SSDPF2KX012T1ES</t>
+          <t>SBFPF2BU153TESF</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RR SE PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3154,17 +3154,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ADPRR SE PRQ1</t>
+          <t>ADPRRR EE PRQ1</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.12</v>
+        <v>45.065</v>
       </c>
       <c r="F53" t="n">
         <v>202241</v>
       </c>
       <c r="G53" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3173,30 +3173,30 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4900000444.0, 4900000516.0, 4900001003.0, 4900001037.0</t>
+          <t>4900001362.0, 4900001365.0</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>20220823, 20220905, 20220912</t>
+          <t>20230216.0</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>28.09173913043478</v>
+        <v>45.0743</v>
       </c>
       <c r="L53" t="n">
-        <v>1938.33</v>
+        <v>4507.43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SSDPF2KX012TZES</t>
+          <t>SBFPF2BU307TES1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS R SE PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ADPR SE</t>
+          <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.75600000000001</v>
+        <v>107.35</v>
       </c>
       <c r="F54" t="n">
         <v>202241</v>
       </c>
       <c r="G54" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3225,30 +3225,30 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4900000339.0, 4900001002.0, 4900001064.0, 4900001065.0, 4900001036.0</t>
+          <t>4900000524.0, 4900000525.0, 4900000526.0, 4900000527.0, 4900001144.0, 4900001145.0, 4900001146.0, 4900001147.0, 4900001317.0, 4900001318.0, 4900001417.0, 4900001418.0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>20220808.0, 20221107.0, 20221117.0, 20221123.0, 20220905.0</t>
+          <t>20220912.0, 20221124.0, 20230213.0, 20230223.0</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>41.20394230769232</v>
+        <v>109.6345625</v>
       </c>
       <c r="L54" t="n">
-        <v>3428.168000000001</v>
+        <v>4385.382500000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SSDPF2KX019T1M1</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RR SE</t>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3258,17 +3258,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ADPRR SE</t>
+          <t>ADPRRR VE</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.08</v>
+        <v>47.14166666666667</v>
       </c>
       <c r="F55" t="n">
         <v>202241</v>
       </c>
       <c r="G55" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3277,30 +3277,30 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4900001081.0, 4900001082.0</t>
+          <t>4900000523.0, 4900001069.0, 4900001070.0, 4900001198.0, 4900001304.0, 4900001290.0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>20221123</t>
+          <t>20220905.0, 20221201.0, 20230106.0, 20230208.0</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>42.08</v>
+        <v>48.06676616915423</v>
       </c>
       <c r="L55" t="n">
-        <v>8416</v>
+        <v>6440.946666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SSDPF2KX076T1ES</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RR SE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3310,17 +3310,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ADPRR SE PRQ1</t>
+          <t>ADPRRR VE PRQ4</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>45.31</v>
+        <v>49.12</v>
       </c>
       <c r="F56" t="n">
         <v>202241</v>
       </c>
       <c r="G56" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3329,30 +3329,30 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>4900000798.0</t>
+          <t>4900001028.0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>20221020</t>
+          <t>20220916.0</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>45.31</v>
+        <v>49.12</v>
       </c>
       <c r="L56" t="n">
-        <v>181.24</v>
+        <v>7073.280000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SSDPF2KX153T1N1</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RR SE</t>
+          <t>NPSG PATHFINDING</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ADPRR SE</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>104.48</v>
+        <v>110.21</v>
       </c>
       <c r="F57" t="n">
         <v>202241</v>
       </c>
       <c r="G57" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3381,30 +3381,30 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>4900001086.0, 4900001087.0</t>
+          <t>4900001047.0, 4900001049.0</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>20221123</t>
+          <t>20221116.0</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>104.48</v>
+        <v>81.92428571428572</v>
       </c>
       <c r="L57" t="n">
-        <v>20896</v>
+        <v>1146.94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SSDPFCKE064T1S1</t>
+          <t>SBFPF2BV076TES1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RR ME</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ADPRR ME PRQ1</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>69.96499999999999</v>
+        <v>46.752</v>
       </c>
       <c r="F58" t="n">
         <v>202241</v>
       </c>
       <c r="G58" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3433,30 +3433,30 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>4900001066.0, 4900001067.0</t>
+          <t>4900001017.0, 4900001018.0, 4900001183.0, 4900001386.0, 4900001387.0</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>20221123.0</t>
+          <t>20221101.0, 20221228.0, 20230118.0</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>69.96499999999999</v>
+        <v>45.94557692307691</v>
       </c>
       <c r="L58" t="n">
-        <v>13993</v>
+        <v>3822.672</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SSDPFUKX019T1AP</t>
+          <t>SBFPF2BV153TES1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RR SE</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3466,17 +3466,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ADPRR SE</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>53.06999999999999</v>
+        <v>52.13666666666666</v>
       </c>
       <c r="F59" t="n">
         <v>202241</v>
       </c>
       <c r="G59" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3485,30 +3485,30 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>4900001083.0</t>
+          <t>4900001021.0, 4900001022.0, 4900001023.0, 4900001182.0, 4900001382.0, 4900001383.0</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>20221123</t>
+          <t>20221101.0, 20221228.0, 20230118.0</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>53.06999999999999</v>
+        <v>51.42674418604651</v>
       </c>
       <c r="L59" t="n">
-        <v>424.5599999999999</v>
+        <v>2948.466666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SSDPFUKX076T1AP</t>
+          <t>SBFPF2BV153TES1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RR SE</t>
+          <t>ARBORDALE PLUS RRR VE PRQ4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3518,17 +3518,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ADPRR SE</t>
+          <t>ADPRRR VE PRQ4</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>58.67</v>
+        <v>54.65</v>
       </c>
       <c r="F60" t="n">
         <v>202241</v>
       </c>
       <c r="G60" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3537,30 +3537,30 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>4900001084.0</t>
+          <t>4900001030.0</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>20221123</t>
+          <t>20220915.0</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>58.67</v>
+        <v>54.65</v>
       </c>
       <c r="L60" t="n">
-        <v>469.36</v>
+        <v>3934.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SSDPFWKX153T1M2</t>
+          <t>SBFPF2BV153TES1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RR SE</t>
+          <t>NPSG PATHFINDING</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3570,17 +3570,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ADPRR SE</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>108.97</v>
+        <v>78.21000000000001</v>
       </c>
       <c r="F61" t="n">
         <v>202241</v>
       </c>
       <c r="G61" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3589,30 +3589,30 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4900001085.0</t>
+          <t>4900001048.0</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>20221123</t>
+          <t>20221116.0</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>108.97</v>
+        <v>78.21000000000001</v>
       </c>
       <c r="L61" t="n">
-        <v>871.76</v>
+        <v>312.84</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SSDPFWKX153T8M2</t>
+          <t>SBFPF2BV307TES1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CDR SE EDSFF</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3622,17 +3622,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CDR SE EDSFF</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>104.53</v>
+        <v>114.19</v>
       </c>
       <c r="F62" t="n">
         <v>202241</v>
       </c>
       <c r="G62" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3641,30 +3641,30 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>4900000912.0</t>
+          <t>4900001019.0, 4900001020.0, 4900001205.0, 4900001384.0, 4900001385.0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>20221028</t>
+          <t>20221101.0, 20221107.0, 20230106.0, 20230131.0</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>104.53</v>
+        <v>109.2489547038327</v>
       </c>
       <c r="L62" t="n">
-        <v>1254.36</v>
+        <v>6270.889999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SSDPFWNV153TZES</t>
+          <t>SBFPF2BV614TES1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NPSG PATHFINDING</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3674,15 +3674,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>116.8471428571429</v>
+      </c>
       <c r="F63" t="n">
         <v>202241</v>
       </c>
       <c r="G63" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3691,26 +3693,30 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>9000000069.0</t>
+          <t>4900000908.0, 4900000909.0, 4900000910.0, 4900000911.0, 4900001401.0, 4900001402.0, 4900001403.0</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>20230123.0</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+          <t>20221004.0, 20220927.0, 20221031.0, 20230217.0</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>111.7962893081761</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5078.745714285716</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SSDSC2KB038TZ01</t>
+          <t>SBFPFABU038TEHP</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>YOUNGSVILLE RR SE</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3720,17 +3726,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>YV RR SE</t>
+          <t>ADPRRR EE PRQ1</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>21.69</v>
+        <v>52.45</v>
       </c>
       <c r="F64" t="n">
         <v>202241</v>
       </c>
       <c r="G64" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3739,71 +3745,2307 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4900000534, 4900000535</t>
+          <t>4900001381.0</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>20220908</t>
+          <t>20230302.0</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>21.68999999999999</v>
+        <v>52.45</v>
       </c>
       <c r="L64" t="n">
-        <v>2342.52</v>
+        <v>5664.6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>SBFPFABU038TES1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>63.02111111111112</v>
+      </c>
+      <c r="F65" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G65" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>4900001014.0, 4900001089.0, 4900001090.0, 4900001132.0, 4900001133.0, 4900001300.0, 4900001301.0, 4900001377.0, 4900001378.0</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>20221117.0, 20221014.0, 20221124.0, 20230118.0, 20230216.0</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>64.59958333333334</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3445.311111111112</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SBFPFABU076TEHP</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="F66" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G66" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>4900001380.0</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>20230302.0</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="L66" t="n">
+        <v>5041.92</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SBFPFABU076TES1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>62.00285714285714</v>
+      </c>
+      <c r="F67" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G67" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>4900001095.0, 4900001138.0, 4900001139.0, 4900001298.0, 4900001299.0, 4900001361.0, 4900001376.0</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>20221014.0, 20221207.0, 20221201.0, 20230118.0, 20230216.0</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>62.60437908496733</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5473.411428571429</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SBFPFABU153TEHP</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>49</v>
+      </c>
+      <c r="F68" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G68" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>4900001379.0</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>20230302.0</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>49</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SBFPFABU153TES1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>60.51272727272727</v>
+      </c>
+      <c r="F69" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G69" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>4900001088.0, 4900001112.0, 4900001142.0, 4900001143.0, 4900001187.0, 4900001195.0, 4900001324.0, 4900001325.0, 4900001374.0, 4900001375.0, 4900001413.0</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>20221014.0, 20221207.0, 20221201.0, 20230106.0, 20230111.0, 20230118.0, 20230112.0, 20230216.0, 20230306.0</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>61.92841145833333</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4664.310909090909</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SBFPFABU307TES1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>93.634</v>
+      </c>
+      <c r="F70" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G70" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4900000530.0, 4900000531.0, 4900000532.0, 4900000533.0, 4900001213.0, 4900001214.0, 4900001215.0, 4900001216.0, 4900001281.0, 4900001319.0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>20220912.0, 20221201.0, 20230206.0, 20230213.0</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>94.38868686868686</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3737.792</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SBFPFABV076TES1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>58.83666666666667</v>
+      </c>
+      <c r="F71" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G71" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>NaN, 4900001210.0, 4900001199.0</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>20220823.0, 20221228.0, 20230106.0</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>60.18923076923078</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1043.28</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SBFPFABV153TES1</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>61.22</v>
+      </c>
+      <c r="F72" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G72" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>NaN, 4900001181.0</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>20220823.0, 20221228.0</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>60.638125</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1293.613333333333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SBFPFABV153TES1</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ4</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ADPRRR VE PRQ4</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>60.13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G73" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>4900001029.0</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>20220915.0</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>60.13</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1683.64</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SBFPFABV307TES1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>105.52</v>
+      </c>
+      <c r="F74" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G74" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>4900001101.0, 4900001102.0</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>20221004.0, 20220908.0</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>105.52</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2532.48</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SBFPFUBU038TES1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>65.06999999999999</v>
+      </c>
+      <c r="F75" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G75" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>4900000528.0, 4900000529.0, 4900000807.0, 4900000808.0, 4900001148.0, 4900001149.0, 4900001152.0, 4900001153.0, 4900001316.0</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>20220916.0, 20220912.0, 20221201.0, 20230213.0</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>65.33937499999999</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1858.542222222222</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SBFPFUBU076TES1</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>63.95333333333333</v>
+      </c>
+      <c r="F76" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G76" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>4900000803.0, 4900000804.0, 4900000805.0, 4900000806.0, 4900001150.0, 4900001151.0, 4900001154.0, 4900001155.0, 4900001314.0</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>20220912.0, 20220916.0, 20221201.0, 20230213.0</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>64.45371428571428</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2005.226666666667</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SBFPFUBU153TES1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>64.93900000000001</v>
+      </c>
+      <c r="F77" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G77" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>4900000799.0, 4900000800.0, 4900000801.0, 4900000802.0, 4900001220.0, 4900001221.0, 4900001222.0, 4900001223.0, 4900001100.0, 4900001315.0</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>20220912.0, 20220916.0, 20221124.0, 20221201.0, 20230213.0</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>65.44534883720931</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2251.32</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SBFPFWBV153TES1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ADPRRR VE</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>94.74416666666667</v>
+      </c>
+      <c r="F78" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G78" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>4900000521.0, 4900000522.0, 4900001099.0, 4900001197.0, 4900001240.0, 4900001204.0, 4900001242.0, 4900001302.0, 4900001320.0, 4900001462.0, 4900001524.0, 4900001496.0</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>20220905.0, 20221213.0, 20230106.0, 20230131.0, 20230112.0, 20221124.0, 20230216.0, 20230407.0, 20230324.0</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>94.55739130434783</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7249.400000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SBFPFWBV153TES1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>98.06</v>
+      </c>
+      <c r="F79" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G79" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>4900001026.0, 4900001027.0</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>20221101.0</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>98.05999999999999</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2745.68</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SBFPFWBV153TESF</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ADPRRR VE</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>87.38000000000001</v>
+      </c>
+      <c r="F80" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G80" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>4900001291.0</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>20230208.0</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>87.38000000000001</v>
+      </c>
+      <c r="L80" t="n">
+        <v>6990.400000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SBFPFWBV307TES1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ADPRRR VE</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>101.6823076923077</v>
+      </c>
+      <c r="F81" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G81" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>4900001056.0, 4900000520.0, 4900001098.0, 4900001196.0, 4900001208.0, 4900001241.0, 4900001303.0, 4900001305.0, 4900001321.0, 4900001456.0, 4900001461.0, 4900001495.0, 4900001498.0</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>20220905.0, 20221101.0, 20230106.0, 20230118.0, 20230131.0, 20221124.0, 20230213.0, 20230316.0, 20230216.0, 20230324.0</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>111.4890365448505</v>
+      </c>
+      <c r="L81" t="n">
+        <v>10325.6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SBFPFWBV307TES1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>97.50999999999999</v>
+      </c>
+      <c r="F82" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G82" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>4900001024.0, 4900001025.0</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>20221101.0</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>97.50999999999999</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2340.24</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SBFPFWBV307TES1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ4</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ADPRRR VE PRQ4</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>98.06999999999999</v>
+      </c>
+      <c r="F83" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G83" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>4900001506.0</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>20230324.0</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>98.06999999999999</v>
+      </c>
+      <c r="L83" t="n">
+        <v>8630.16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SBFPFWBV307TESF</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ADPRRR VE</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>128.11</v>
+      </c>
+      <c r="F84" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G84" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>4900001322.0</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>20230213.0</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>128.11</v>
+      </c>
+      <c r="L84" t="n">
+        <v>10248.8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SBFPFWBV614TES1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ADPRRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>102.655</v>
+      </c>
+      <c r="F85" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G85" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>4900000449.0, 4900000450.0, 4900000451.0, 4900001398.0, 4900001399.0, 4900001459.0</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>20220908.0, 20220927.0, 20230324.0, 20230406.0</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>103.17046875</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4401.94</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SSDPF2KX012T1ES</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RR SE PRQ1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ADPRR SE PRQ1</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>27.59857142857143</v>
+      </c>
+      <c r="F86" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G86" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>4900000444.0, 4900000516.0, 4900001003.0, 4900001037.0, 4900001129.0, 4900001358.0, 4900001359.0</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>20220823, 20220905, 20220912, 20221124, 20230214</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>27.70725490196078</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1614.937142857143</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SSDPF2KX012TZES</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ADPR SE</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>36.835</v>
+      </c>
+      <c r="F87" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G87" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>4900000339.0, 4900001002.0, 4900001064.0, 4900001065.0, 4900001036.0, 4900001175.0, 4900001176.0, 4900001217.0</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>20220808.0, 20221107.0, 20221117.0, 20221123.0, 20220905.0, 20221213.0, 20230111.0</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>41.21995145631069</v>
+      </c>
+      <c r="L87" t="n">
+        <v>4245.655000000001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SSDPF2KX019T1M1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RR SE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ADPRR SE</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="F88" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G88" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>4900001081.0, 4900001082.0</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>20221123</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8416</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SSDPF2KX076T1ES</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RR SE PRQ1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ADPRR SE PRQ1</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>45.31</v>
+      </c>
+      <c r="F89" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G89" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>4900000798.0</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>20221020</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>45.31</v>
+      </c>
+      <c r="L89" t="n">
+        <v>181.24</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SSDPF2KX153T1N1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RR SE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ADPRR SE</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>104.48</v>
+      </c>
+      <c r="F90" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G90" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>4900001086.0, 4900001087.0</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>20221123</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>104.48</v>
+      </c>
+      <c r="L90" t="n">
+        <v>20896</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SSDPF2NV017TZES</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R VE PRQ2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ADPR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="F91" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G91" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>4900000338.0</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>20220808.0</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1182.28</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SSDPF2NV153TZN1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R VE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>ADPR VE</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>100.89</v>
+      </c>
+      <c r="F92" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G92" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>4900001449</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>20230313</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>100.89</v>
+      </c>
+      <c r="L92" t="n">
+        <v>22599.36</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SSDPF2NV307TZN1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R VE</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>ADPR VE</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>101.36</v>
+      </c>
+      <c r="F93" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G93" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>4900001451</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>20230313</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>101.36</v>
+      </c>
+      <c r="L93" t="n">
+        <v>23110.08</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SSDPFCKE064T1S1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RR ME</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>ADPRR ME PRQ1</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>69.96499999999999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G94" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>4900001066.0, 4900001067.0</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>20221123.0</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>69.96499999999999</v>
+      </c>
+      <c r="L94" t="n">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SSDPFKNU512GZ1S</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>EH</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G95" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>4900001188.0</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>20230106.0</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1060.8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SSDPFUKX019T1AP</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RR SE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ADPRR SE</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>53.06999999999999</v>
+      </c>
+      <c r="F96" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G96" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>4900001083.0</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>20221123</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>53.06999999999999</v>
+      </c>
+      <c r="L96" t="n">
+        <v>424.5599999999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SSDPFUKX076T1AP</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RR SE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>ADPRR SE</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>58.67</v>
+      </c>
+      <c r="F97" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G97" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>4900001084.0</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>20221123</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>58.67</v>
+      </c>
+      <c r="L97" t="n">
+        <v>469.36</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SSDPFWKX153T1M2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RR SE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ADPRR SE</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>108.97</v>
+      </c>
+      <c r="F98" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G98" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>4900001085.0</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>20221123</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>108.97</v>
+      </c>
+      <c r="L98" t="n">
+        <v>871.76</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SSDPFWKX153T8M2</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CDR SE EDSFF</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>CDR SE EDSFF</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>104.53</v>
+      </c>
+      <c r="F99" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G99" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>4900000912.0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>20221028</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>104.53</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1254.36</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SSDPFWNV153TZES</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>NPSG PATHFINDING</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>229.45</v>
+      </c>
+      <c r="F100" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G100" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>9000000069.0, 9000003704.0</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>20230123.0, 20230109.0</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>229.45</v>
+      </c>
+      <c r="L100" t="n">
+        <v>917.8000000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SSDPFWNV153TZM2</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R VE</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ADPR VE</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="F101" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G101" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>4900001448</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>20230313</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="L101" t="n">
+        <v>23187.6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SSDPFWNV307TZM2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R VE</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ADPR VE</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>102.17</v>
+      </c>
+      <c r="F102" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G102" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>4900001450</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>20230313</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>102.17</v>
+      </c>
+      <c r="L102" t="n">
+        <v>23703.44</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SSDPHAKX012TZES</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>NPSG PATHFINDING</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>181.3766666666667</v>
+      </c>
+      <c r="F103" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G103" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>4900001189.0, 9000003704.0</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>20230112.0, 20230109.0</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>105.9793333333333</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2119.586666666667</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SSDPHAKX025TZES</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>NPSG PATHFINDING</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>112.5733333333333</v>
+      </c>
+      <c r="F104" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G104" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>4900000443.0, 4900001201.0, 4900001416.0</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>20220927.0, 20230112.0, 20230207.0</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>104.76</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1815.84</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SSDSC2KB038TZ01</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>YOUNGSVILLE RR SE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>YV RR SE</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="F105" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G105" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>4900000534, 4900000535</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>20220908</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>21.68999999999999</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2342.52</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SSDSC2KB076TZ01</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>YOUNGSVILLE RR SE</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>YV RR SE</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="F106" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G106" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>4900001040, 4900001041, 4900001038, 4900001039</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>20220915, 20220908</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2054.37</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
           <t>SSDSC2KB960GZ01</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>YOUNGSVILLE RR SE</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>PTI TAIWAN</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>YV RR SE</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="E107" t="n">
         <v>21.64</v>
       </c>
-      <c r="F65" t="n">
-        <v>202241</v>
-      </c>
-      <c r="G65" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
+      <c r="F107" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G107" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>4900000536, 4900000537</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>20220908</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="K107" t="n">
         <v>21.64</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L107" t="n">
         <v>2337.12</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>NPSG PATHFINDING</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PTI TAIWAN</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G108" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>4900001408.0, 4900001488.0</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>20230303.0, 20230317.0</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>84.41714285714286</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2363.68</v>
       </c>
     </row>
   </sheetData>
